--- a/results/result_basic_with_sin_cos.xlsx
+++ b/results/result_basic_with_sin_cos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mikolaj\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\IdeaProjects\TinyGP\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA54F3E-29CD-4ED8-8AD4-66AF9B8F0367}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EC57B50-C63A-4557-A893-D28F7E210740}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Summary" sheetId="1" r:id="rId1"/>
@@ -93,7 +93,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -110,6 +110,24 @@
         <fgColor indexed="52"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDFDF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -123,16 +141,24 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFFDDFDF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -3077,15 +3103,18 @@
   <dimension ref="A1:N102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Z30" sqref="Z30"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="13" max="13" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="8.88671875" style="5"/>
+    <col min="3" max="3" width="8.88671875" style="4"/>
+    <col min="13" max="13" width="9.109375" customWidth="1"/>
+    <col min="14" max="14" width="8.88671875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3129,14 +3158,14 @@
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="5">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="4">
         <f t="shared" ref="C2:C33" si="0">2.10604632454358+A2^2</f>
         <v>2.1060463245435801</v>
       </c>
@@ -3180,19 +3209,19 @@
         <f t="shared" ref="M2:M33" si="10">7.59467364218368+2*A2-5025427450137200/COS(0.639103478209163*A2^2)</f>
         <v>-5025427450137192</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="3">
         <f t="shared" ref="N2:N33" si="11">-1.26602480371485*(-0.211948871345009+A2)+A2^2+1*(-A2^2-0.200085359078219*(-2.10604632454358-2.54947225585585*(-7.74420659363753+A2+A2^2+(-0.693332055265977*(-2.10604632454358+(-0.211948871345009+1.22872333135044*A2)*(-0.942013923241527*A2+2.05891889657357*A2^2)*COS(1.38666411053195-0.789873940120081*A2)*(-0.693332055265977+SIN(A2))))/(2.10604632454358+A2)))-0.693332055265977*(A2+2.10604632454358*SIN(A2))+1.82600067903852*(-2.10604632454358+0.0551847756853657*A2^2*COS(2.10604632454358-0.210365559188176*A2)*SIN(0.693332055265977+SIN(6.18048654937097*COS(A2^2)))))</f>
         <v>-6.7526566739586675</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>0.1</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="5">
         <v>2.0099999999999998</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="4">
         <f t="shared" si="0"/>
         <v>2.1160463245435799</v>
       </c>
@@ -3236,19 +3265,19 @@
         <f t="shared" si="10"/>
         <v>-5025530084494118</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="3">
         <f t="shared" si="11"/>
         <v>-7.0344015776446831</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>0.2</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="5">
         <v>2.04</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="4">
         <f t="shared" si="0"/>
         <v>2.1460463245435801</v>
       </c>
@@ -3292,19 +3321,19 @@
         <f t="shared" si="10"/>
         <v>-5027070019172656</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="3">
         <f t="shared" si="11"/>
         <v>-7.264016264204237</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>0.3</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="5">
         <v>2.09</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="4">
         <f t="shared" si="0"/>
         <v>2.19604632454358</v>
       </c>
@@ -3348,19 +3377,19 @@
         <f t="shared" si="10"/>
         <v>-5033752167053873</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="3">
         <f t="shared" si="11"/>
         <v>-7.4397101294559933</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>0.4</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="5">
         <v>2.16</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
         <v>2.2660463245435802</v>
       </c>
@@ -3404,19 +3433,19 @@
         <f t="shared" si="10"/>
         <v>-5051816358434767</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="3">
         <f t="shared" si="11"/>
         <v>-7.5595332050934916</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>0.5</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="5">
         <v>2.25</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="4">
         <f t="shared" si="0"/>
         <v>2.3560463245435801</v>
       </c>
@@ -3460,19 +3489,19 @@
         <f t="shared" si="10"/>
         <v>-5090262290746128</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="3">
         <f t="shared" si="11"/>
         <v>-7.6214974111001359</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>0.6</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="5">
         <v>2.36</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="4">
         <f t="shared" si="0"/>
         <v>2.46604632454358</v>
       </c>
@@ -3516,19 +3545,19 @@
         <f t="shared" si="10"/>
         <v>-5161437626776105</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="3">
         <f t="shared" si="11"/>
         <v>-7.6235929424273605</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>0.7</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="5">
         <v>2.4900000000000002</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="4">
         <f t="shared" si="0"/>
         <v>2.5960463245435799</v>
       </c>
@@ -3572,19 +3601,19 @@
         <f t="shared" si="10"/>
         <v>-5282335893095840</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="3">
         <f t="shared" si="11"/>
         <v>-7.5643072136584211</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>0.8</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="5">
         <v>2.64</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="4">
         <f t="shared" si="0"/>
         <v>2.7460463245435802</v>
       </c>
@@ -3628,19 +3657,19 @@
         <f t="shared" si="10"/>
         <v>-5477254121260023</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="3">
         <f t="shared" si="11"/>
         <v>-7.445022485881676</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>0.9</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="5">
         <v>2.81</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="4">
         <f t="shared" si="0"/>
         <v>2.9160463245435801</v>
       </c>
@@ -3684,19 +3713,19 @@
         <f t="shared" si="10"/>
         <v>-5783182434333216</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="3">
         <f t="shared" si="11"/>
         <v>-7.2738566735095311</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>1</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>3</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="4">
         <f t="shared" si="0"/>
         <v>3.1060463245435801</v>
       </c>
@@ -3740,19 +3769,19 @@
         <f t="shared" si="10"/>
         <v>-6261194108208771</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="3">
         <f t="shared" si="11"/>
         <v>-7.0655411417150642</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.1000000000000001</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="5">
         <v>3.21</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="4">
         <f t="shared" si="0"/>
         <v>3.3160463245435805</v>
       </c>
@@ -3796,19 +3825,19 @@
         <f t="shared" si="10"/>
         <v>-7022687547711411</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="3">
         <f t="shared" si="11"/>
         <v>-6.8001399763286283</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>1.2</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="5">
         <v>3.44</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="4">
         <f t="shared" si="0"/>
         <v>3.54604632454358</v>
       </c>
@@ -3852,19 +3881,19 @@
         <f t="shared" si="10"/>
         <v>-8298614416774993</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="3">
         <f t="shared" si="11"/>
         <v>-6.4600580998955044</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>1.3</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="5">
         <v>3.69</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="4">
         <f t="shared" si="0"/>
         <v>3.79604632454358</v>
       </c>
@@ -3908,19 +3937,19 @@
         <f t="shared" si="10"/>
         <v>-1.0663957748271152E+16</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="3">
         <f t="shared" si="11"/>
         <v>-6.0195995473461759</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>1.4</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="5">
         <v>3.96</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="4">
         <f t="shared" si="0"/>
         <v>4.0660463245435796</v>
       </c>
@@ -3964,19 +3993,19 @@
         <f t="shared" si="10"/>
         <v>-1.6065262932365374E+16</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="3">
         <f t="shared" si="11"/>
         <v>-5.5569491826853961</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>1.5</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="5">
         <v>4.25</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="4">
         <f t="shared" si="0"/>
         <v>4.3560463245435805</v>
       </c>
@@ -4020,19 +4049,19 @@
         <f t="shared" si="10"/>
         <v>-3.7949697552717696E+16</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="3">
         <f t="shared" si="11"/>
         <v>-5.0843061862553816</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>1.6</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="5">
         <v>4.5599999999999996</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>4.666046324543581</v>
       </c>
@@ -4076,19 +4105,19 @@
         <f t="shared" si="10"/>
         <v>7.700369300175584E+16</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="3">
         <f t="shared" si="11"/>
         <v>-4.5001939384895602</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>1.7</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="5">
         <v>4.8899999999999997</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="4">
         <f t="shared" si="0"/>
         <v>4.9960463245435793</v>
       </c>
@@ -4132,19 +4161,19 @@
         <f t="shared" si="10"/>
         <v>1.8427471262210912E+16</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="3">
         <f t="shared" si="11"/>
         <v>-3.837114856833435</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>1.8</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="5">
         <v>5.24</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="4">
         <f t="shared" si="0"/>
         <v>5.3460463245435808</v>
       </c>
@@ -4188,19 +4217,19 @@
         <f t="shared" si="10"/>
         <v>1.0484124996222926E+16</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="3">
         <f t="shared" si="11"/>
         <v>-3.1034911484745007</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>1.9</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>5.61</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="4">
         <f t="shared" si="0"/>
         <v>5.71604632454358</v>
       </c>
@@ -4244,19 +4273,19 @@
         <f t="shared" si="10"/>
         <v>7482759980002468</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="3">
         <f t="shared" si="11"/>
         <v>-2.3083461963511129</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>2</v>
       </c>
-      <c r="B22">
+      <c r="B22" s="5">
         <v>6</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="4">
         <f t="shared" si="0"/>
         <v>6.1060463245435805</v>
       </c>
@@ -4300,19 +4329,19 @@
         <f t="shared" si="10"/>
         <v>6028487088518816</v>
       </c>
-      <c r="N22">
+      <c r="N22" s="3">
         <f t="shared" si="11"/>
         <v>-1.4169526959990968</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>2.1</v>
       </c>
-      <c r="B23">
+      <c r="B23" s="5">
         <v>6.41</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="4">
         <f t="shared" si="0"/>
         <v>6.5160463245435807</v>
       </c>
@@ -4356,19 +4385,19 @@
         <f t="shared" si="10"/>
         <v>5299736534921816</v>
       </c>
-      <c r="N23">
+      <c r="N23" s="3">
         <f t="shared" si="11"/>
         <v>-0.3838439563148528</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>2.2000000000000002</v>
       </c>
-      <c r="B24">
+      <c r="B24" s="5">
         <v>6.84</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="4">
         <f t="shared" si="0"/>
         <v>6.9460463245435804</v>
       </c>
@@ -4412,19 +4441,19 @@
         <f t="shared" si="10"/>
         <v>5031302779217814</v>
       </c>
-      <c r="N24">
+      <c r="N24" s="3">
         <f t="shared" si="11"/>
         <v>0.63725010338269117</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>2.2999999999999998</v>
       </c>
-      <c r="B25">
+      <c r="B25" s="5">
         <v>7.29</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="4">
         <f t="shared" si="0"/>
         <v>7.3960463245435797</v>
       </c>
@@ -4468,19 +4497,19 @@
         <f t="shared" si="10"/>
         <v>5172787311122766</v>
       </c>
-      <c r="N25">
+      <c r="N25" s="3">
         <f t="shared" si="11"/>
         <v>1.8197053687728579</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>2.4</v>
       </c>
-      <c r="B26">
+      <c r="B26" s="5">
         <v>7.76</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="4">
         <f t="shared" si="0"/>
         <v>7.8660463245435803</v>
       </c>
@@ -4524,19 +4553,19 @@
         <f t="shared" si="10"/>
         <v>5857879059047995</v>
       </c>
-      <c r="N26">
+      <c r="N26" s="3">
         <f t="shared" si="11"/>
         <v>3.086795948936254</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>2.5</v>
       </c>
-      <c r="B27">
+      <c r="B27" s="5">
         <v>8.25</v>
       </c>
-      <c r="C27">
+      <c r="C27" s="4">
         <f t="shared" si="0"/>
         <v>8.3560463245435805</v>
       </c>
@@ -4580,19 +4609,19 @@
         <f t="shared" si="10"/>
         <v>7638891666895725</v>
       </c>
-      <c r="N27">
+      <c r="N27" s="3">
         <f t="shared" si="11"/>
         <v>4.4255425540103648</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>2.6</v>
       </c>
-      <c r="B28">
+      <c r="B28" s="5">
         <v>8.76</v>
       </c>
-      <c r="C28">
+      <c r="C28" s="4">
         <f t="shared" si="0"/>
         <v>8.8660463245435803</v>
       </c>
@@ -4636,19 +4665,19 @@
         <f t="shared" si="10"/>
         <v>1.3152705030492976E+16</v>
       </c>
-      <c r="N28">
+      <c r="N28" s="3">
         <f t="shared" si="11"/>
         <v>5.858593183752026</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>2.7</v>
       </c>
-      <c r="B29">
+      <c r="B29" s="5">
         <v>9.2899999999999991</v>
       </c>
-      <c r="C29">
+      <c r="C29" s="4">
         <f t="shared" si="0"/>
         <v>9.3960463245435815</v>
       </c>
@@ -4692,19 +4721,19 @@
         <f t="shared" si="10"/>
         <v>9.4286832002822288E+16</v>
       </c>
-      <c r="N29">
+      <c r="N29" s="3">
         <f t="shared" si="11"/>
         <v>7.3790096718107669</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>2.8</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="5">
         <v>9.84</v>
       </c>
-      <c r="C30">
+      <c r="C30" s="4">
         <f t="shared" si="0"/>
         <v>9.9460463245435786</v>
       </c>
@@ -4748,19 +4777,19 @@
         <f t="shared" si="10"/>
         <v>-1.7105905172627444E+16</v>
       </c>
-      <c r="N30">
+      <c r="N30" s="3">
         <f t="shared" si="11"/>
         <v>8.9718455673392068</v>
       </c>
     </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>2.9</v>
       </c>
-      <c r="B31">
+      <c r="B31" s="5">
         <v>10.41</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="4">
         <f t="shared" si="0"/>
         <v>10.516046324543581</v>
       </c>
@@ -4804,19 +4833,19 @@
         <f t="shared" si="10"/>
         <v>-8170533131654918</v>
       </c>
-      <c r="N31">
+      <c r="N31" s="3">
         <f t="shared" si="11"/>
         <v>10.616144476056798</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>3</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="5">
         <v>11</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="4">
         <f t="shared" si="0"/>
         <v>11.106046324543581</v>
       </c>
@@ -4860,19 +4889,19 @@
         <f t="shared" si="10"/>
         <v>-5828796129563881</v>
       </c>
-      <c r="N32">
+      <c r="N32" s="3">
         <f t="shared" si="11"/>
         <v>12.31770682433789</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>3.1</v>
       </c>
-      <c r="B33">
+      <c r="B33" s="5">
         <v>11.61</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="4">
         <f t="shared" si="0"/>
         <v>11.716046324543582</v>
       </c>
@@ -4916,19 +4945,19 @@
         <f t="shared" si="10"/>
         <v>-5076089148432136</v>
       </c>
-      <c r="N33">
+      <c r="N33" s="3">
         <f t="shared" si="11"/>
         <v>14.002686323354615</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>3.2</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>12.24</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="4">
         <f t="shared" ref="C34:C65" si="12">2.10604632454358+A34^2</f>
         <v>12.346046324543583</v>
       </c>
@@ -4972,19 +5001,19 @@
         <f t="shared" ref="M34:M65" si="22">7.59467364218368+2*A34-5025427450137200/COS(0.639103478209163*A34^2)</f>
         <v>-5201918532009090</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="3">
         <f t="shared" ref="N34:N65" si="23">-1.26602480371485*(-0.211948871345009+A34)+A34^2+1*(-A34^2-0.200085359078219*(-2.10604632454358-2.54947225585585*(-7.74420659363753+A34+A34^2+(-0.693332055265977*(-2.10604632454358+(-0.211948871345009+1.22872333135044*A34)*(-0.942013923241527*A34+2.05891889657357*A34^2)*COS(1.38666411053195-0.789873940120081*A34)*(-0.693332055265977+SIN(A34))))/(2.10604632454358+A34)))-0.693332055265977*(A34+2.10604632454358*SIN(A34))+1.82600067903852*(-2.10604632454358+0.0551847756853657*A34^2*COS(2.10604632454358-0.210365559188176*A34)*SIN(0.693332055265977+SIN(6.18048654937097*COS(A34^2)))))</f>
         <v>15.730646388826729</v>
       </c>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A35">
         <v>3.3</v>
       </c>
-      <c r="B35">
+      <c r="B35" s="5">
         <v>12.89</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="4">
         <f t="shared" si="12"/>
         <v>12.996046324543579</v>
       </c>
@@ -5028,19 +5057,19 @@
         <f t="shared" si="22"/>
         <v>-6445551062420213</v>
       </c>
-      <c r="N35">
+      <c r="N35" s="3">
         <f t="shared" si="23"/>
         <v>17.249891316883961</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A36">
         <v>3.4</v>
       </c>
-      <c r="B36">
+      <c r="B36" s="5">
         <v>13.56</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="4">
         <f t="shared" si="12"/>
         <v>13.666046324543579</v>
       </c>
@@ -5084,19 +5113,19 @@
         <f t="shared" si="22"/>
         <v>-1.118582103340188E+16</v>
       </c>
-      <c r="N36">
+      <c r="N36" s="3">
         <f t="shared" si="23"/>
         <v>18.933958113754304</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A37">
         <v>3.5</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>14.25</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="4">
         <f t="shared" si="12"/>
         <v>14.356046324543581</v>
       </c>
@@ -5140,19 +5169,19 @@
         <f t="shared" si="22"/>
         <v>-2.0132768177405648E+17</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="3">
         <f t="shared" si="23"/>
         <v>20.41897452736465</v>
       </c>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A38">
         <v>3.6</v>
       </c>
-      <c r="B38">
+      <c r="B38" s="5">
         <v>14.96</v>
       </c>
-      <c r="C38">
+      <c r="C38" s="4">
         <f t="shared" si="12"/>
         <v>15.066046324543581</v>
       </c>
@@ -5196,19 +5225,19 @@
         <f t="shared" si="22"/>
         <v>1.2086768638931346E+16</v>
       </c>
-      <c r="N38">
+      <c r="N38" s="3">
         <f t="shared" si="23"/>
         <v>21.811906592553562</v>
       </c>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A39">
         <v>3.7</v>
       </c>
-      <c r="B39">
+      <c r="B39" s="5">
         <v>15.69</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="4">
         <f t="shared" si="12"/>
         <v>15.796046324543582</v>
       </c>
@@ -5252,19 +5281,19 @@
         <f t="shared" si="22"/>
         <v>6439348506591806</v>
       </c>
-      <c r="N39">
+      <c r="N39" s="3">
         <f t="shared" si="23"/>
         <v>23.377880083166851</v>
       </c>
     </row>
-    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A40">
         <v>3.8</v>
       </c>
-      <c r="B40">
+      <c r="B40" s="5">
         <v>16.440000000000001</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="4">
         <f t="shared" si="12"/>
         <v>16.546046324543578</v>
       </c>
@@ -5308,19 +5337,19 @@
         <f t="shared" si="22"/>
         <v>5123651393685211</v>
       </c>
-      <c r="N40">
+      <c r="N40" s="3">
         <f t="shared" si="23"/>
         <v>24.149567111738119</v>
       </c>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A41">
         <v>3.9</v>
       </c>
-      <c r="B41">
+      <c r="B41" s="5">
         <v>17.21</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="4">
         <f t="shared" si="12"/>
         <v>17.316046324543578</v>
       </c>
@@ -5364,19 +5393,19 @@
         <f t="shared" si="22"/>
         <v>5253892852297154</v>
       </c>
-      <c r="N41">
+      <c r="N41" s="3">
         <f t="shared" si="23"/>
         <v>25.712804815867315</v>
       </c>
     </row>
-    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A42">
         <v>4</v>
       </c>
-      <c r="B42">
+      <c r="B42" s="5">
         <v>18</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="4">
         <f t="shared" si="12"/>
         <v>18.106046324543581</v>
       </c>
@@ -5420,19 +5449,19 @@
         <f t="shared" si="22"/>
         <v>7219644835180070</v>
       </c>
-      <c r="N42">
+      <c r="N42" s="3">
         <f t="shared" si="23"/>
         <v>26.594463234233999</v>
       </c>
     </row>
-    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A43">
         <v>4.0999999999999996</v>
       </c>
-      <c r="B43">
+      <c r="B43" s="5">
         <v>18.809999999999999</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="4">
         <f t="shared" si="12"/>
         <v>18.916046324543579</v>
       </c>
@@ -5476,19 +5505,19 @@
         <f t="shared" si="22"/>
         <v>2.0135669254832988E+16</v>
       </c>
-      <c r="N43">
+      <c r="N43" s="3">
         <f t="shared" si="23"/>
         <v>27.103710148214283</v>
       </c>
     </row>
-    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A44">
         <v>4.2</v>
       </c>
-      <c r="B44">
+      <c r="B44" s="5">
         <v>19.64</v>
       </c>
-      <c r="C44">
+      <c r="C44" s="4">
         <f t="shared" si="12"/>
         <v>19.746046324543581</v>
       </c>
@@ -5532,19 +5561,19 @@
         <f t="shared" si="22"/>
         <v>-1.8298505898300404E+16</v>
       </c>
-      <c r="N44">
+      <c r="N44" s="3">
         <f t="shared" si="23"/>
         <v>28.12970286300305</v>
       </c>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A45">
         <v>4.3</v>
       </c>
-      <c r="B45">
+      <c r="B45" s="5">
         <v>20.49</v>
       </c>
-      <c r="C45">
+      <c r="C45" s="4">
         <f t="shared" si="12"/>
         <v>20.596046324543579</v>
       </c>
@@ -5588,19 +5617,19 @@
         <f t="shared" si="22"/>
         <v>-6864085097383307</v>
       </c>
-      <c r="N45">
+      <c r="N45" s="3">
         <f t="shared" si="23"/>
         <v>28.155788863504714</v>
       </c>
     </row>
-    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A46">
         <v>4.4000000000000004</v>
       </c>
-      <c r="B46">
+      <c r="B46" s="5">
         <v>21.36</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="4">
         <f t="shared" si="12"/>
         <v>21.466046324543584</v>
       </c>
@@ -5644,19 +5673,19 @@
         <f t="shared" si="22"/>
         <v>-5120826320368918</v>
       </c>
-      <c r="N46">
+      <c r="N46" s="3">
         <f t="shared" si="23"/>
         <v>28.340389031938329</v>
       </c>
     </row>
-    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A47">
         <v>4.5</v>
       </c>
-      <c r="B47">
+      <c r="B47" s="5">
         <v>22.25</v>
       </c>
-      <c r="C47">
+      <c r="C47" s="4">
         <f t="shared" si="12"/>
         <v>22.356046324543581</v>
       </c>
@@ -5700,19 +5729,19 @@
         <f t="shared" si="22"/>
         <v>-5401747749386048</v>
       </c>
-      <c r="N47">
+      <c r="N47" s="3">
         <f t="shared" si="23"/>
         <v>29.543121985282344</v>
       </c>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A48">
         <v>4.5999999999999996</v>
       </c>
-      <c r="B48">
+      <c r="B48" s="5">
         <v>23.16</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="4">
         <f t="shared" si="12"/>
         <v>23.266046324543577</v>
       </c>
@@ -5756,19 +5785,19 @@
         <f t="shared" si="22"/>
         <v>-8725809985972457</v>
       </c>
-      <c r="N48">
+      <c r="N48" s="3">
         <f t="shared" si="23"/>
         <v>29.915310003900636</v>
       </c>
     </row>
-    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>4.7</v>
       </c>
-      <c r="B49">
+      <c r="B49" s="5">
         <v>24.09</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="4">
         <f t="shared" si="12"/>
         <v>24.196046324543584</v>
       </c>
@@ -5812,19 +5841,19 @@
         <f t="shared" si="22"/>
         <v>-2.594452459893705E+17</v>
       </c>
-      <c r="N49">
+      <c r="N49" s="3">
         <f t="shared" si="23"/>
         <v>30.046355155429225</v>
       </c>
     </row>
-    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>4.8</v>
       </c>
-      <c r="B50">
+      <c r="B50" s="5">
         <v>25.04</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="4">
         <f t="shared" si="12"/>
         <v>25.14604632454358</v>
       </c>
@@ -5868,19 +5897,19 @@
         <f t="shared" si="22"/>
         <v>9062782625239402</v>
       </c>
-      <c r="N50">
+      <c r="N50" s="3">
         <f t="shared" si="23"/>
         <v>30.324372764092072</v>
       </c>
     </row>
-    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>4.9000000000000004</v>
       </c>
-      <c r="B51">
+      <c r="B51" s="5">
         <v>26.01</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="4">
         <f t="shared" si="12"/>
         <v>26.116046324543586</v>
       </c>
@@ -5924,19 +5953,19 @@
         <f t="shared" si="22"/>
         <v>5375914083633752</v>
       </c>
-      <c r="N51">
+      <c r="N51" s="3">
         <f t="shared" si="23"/>
         <v>31.2193205115965</v>
       </c>
     </row>
-    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>5</v>
       </c>
-      <c r="B52">
+      <c r="B52" s="5">
         <v>27</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="4">
         <f t="shared" si="12"/>
         <v>27.106046324543581</v>
       </c>
@@ -5980,19 +6009,19 @@
         <f t="shared" si="22"/>
         <v>5213795615859437</v>
       </c>
-      <c r="N52">
+      <c r="N52" s="3">
         <f t="shared" si="23"/>
         <v>31.4476624749637</v>
       </c>
     </row>
-    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>5.0999999999999996</v>
       </c>
-      <c r="B53">
+      <c r="B53" s="5">
         <v>28.01</v>
       </c>
-      <c r="C53">
+      <c r="C53" s="4">
         <f t="shared" si="12"/>
         <v>28.116046324543579</v>
       </c>
@@ -6036,19 +6065,19 @@
         <f t="shared" si="22"/>
         <v>8242501367593161</v>
       </c>
-      <c r="N53">
+      <c r="N53" s="3">
         <f t="shared" si="23"/>
         <v>31.619973060750283</v>
       </c>
     </row>
-    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>5.2</v>
       </c>
-      <c r="B54">
+      <c r="B54" s="5">
         <v>29.04</v>
       </c>
-      <c r="C54">
+      <c r="C54" s="4">
         <f t="shared" si="12"/>
         <v>29.146046324543583</v>
       </c>
@@ -6092,19 +6121,19 @@
         <f t="shared" si="22"/>
         <v>-1.934007365795266E+18</v>
       </c>
-      <c r="N54">
+      <c r="N54" s="3">
         <f t="shared" si="23"/>
         <v>32.486557576560955</v>
       </c>
     </row>
-    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>5.3</v>
       </c>
-      <c r="B55">
+      <c r="B55" s="5">
         <v>30.09</v>
       </c>
-      <c r="C55">
+      <c r="C55" s="4">
         <f t="shared" si="12"/>
         <v>30.19604632454358</v>
       </c>
@@ -6148,19 +6177,19 @@
         <f t="shared" si="22"/>
         <v>-8055527375417418</v>
       </c>
-      <c r="N55">
+      <c r="N55" s="3">
         <f t="shared" si="23"/>
         <v>35.40035519754889</v>
       </c>
     </row>
-    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>5.4</v>
       </c>
-      <c r="B56">
+      <c r="B56" s="5">
         <v>31.16</v>
       </c>
-      <c r="C56">
+      <c r="C56" s="4">
         <f t="shared" si="12"/>
         <v>31.266046324543584</v>
       </c>
@@ -6204,19 +6233,19 @@
         <f t="shared" si="22"/>
         <v>-5141954468047057</v>
       </c>
-      <c r="N56">
+      <c r="N56" s="3">
         <f t="shared" si="23"/>
         <v>37.578929809831749</v>
       </c>
     </row>
-    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>5.5</v>
       </c>
-      <c r="B57">
+      <c r="B57" s="5">
         <v>32.25</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="4">
         <f t="shared" si="12"/>
         <v>32.356046324543577</v>
       </c>
@@ -6260,19 +6289,19 @@
         <f t="shared" si="22"/>
         <v>-5675531586463437</v>
       </c>
-      <c r="N57">
+      <c r="N57" s="3">
         <f t="shared" si="23"/>
         <v>39.808061611195846</v>
       </c>
     </row>
-    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>5.6</v>
       </c>
-      <c r="B58">
+      <c r="B58" s="5">
         <v>33.36</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="4">
         <f t="shared" si="12"/>
         <v>33.466046324543576</v>
       </c>
@@ -6316,19 +6345,19 @@
         <f t="shared" si="22"/>
         <v>-1.3614438974645598E+16</v>
       </c>
-      <c r="N58">
+      <c r="N58" s="3">
         <f t="shared" si="23"/>
         <v>41.646931023861057</v>
       </c>
     </row>
-    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>5.7</v>
       </c>
-      <c r="B59">
+      <c r="B59" s="5">
         <v>34.49</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="4">
         <f t="shared" si="12"/>
         <v>34.596046324543579</v>
       </c>
@@ -6372,19 +6401,19 @@
         <f t="shared" si="22"/>
         <v>1.4895973760312856E+16</v>
       </c>
-      <c r="N59">
+      <c r="N59" s="3">
         <f t="shared" si="23"/>
         <v>45.107001382146585</v>
       </c>
     </row>
-    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>5.8</v>
       </c>
-      <c r="B60">
+      <c r="B60" s="5">
         <v>35.64</v>
       </c>
-      <c r="C60">
+      <c r="C60" s="4">
         <f t="shared" si="12"/>
         <v>35.746046324543578</v>
       </c>
@@ -6428,19 +6457,19 @@
         <f t="shared" si="22"/>
         <v>5700814668450616</v>
       </c>
-      <c r="N60">
+      <c r="N60" s="3">
         <f t="shared" si="23"/>
         <v>48.929780847776854</v>
       </c>
     </row>
-    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>5.9</v>
       </c>
-      <c r="B61">
+      <c r="B61" s="5">
         <v>36.81</v>
       </c>
-      <c r="C61">
+      <c r="C61" s="4">
         <f t="shared" si="12"/>
         <v>36.916046324543579</v>
       </c>
@@ -6484,19 +6513,19 @@
         <f t="shared" si="22"/>
         <v>5194779600292598</v>
       </c>
-      <c r="N61">
+      <c r="N61" s="3">
         <f t="shared" si="23"/>
         <v>52.513891736609878</v>
       </c>
     </row>
-    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>6</v>
       </c>
-      <c r="B62">
+      <c r="B62" s="5">
         <v>38</v>
       </c>
-      <c r="C62">
+      <c r="C62" s="4">
         <f t="shared" si="12"/>
         <v>38.106046324543577</v>
       </c>
@@ -6540,19 +6569,19 @@
         <f t="shared" si="22"/>
         <v>9548962374293116</v>
       </c>
-      <c r="N62">
+      <c r="N62" s="3">
         <f t="shared" si="23"/>
         <v>54.673100457726534</v>
       </c>
     </row>
-    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>6.1</v>
       </c>
-      <c r="B63">
+      <c r="B63" s="5">
         <v>39.21</v>
       </c>
-      <c r="C63">
+      <c r="C63" s="4">
         <f t="shared" si="12"/>
         <v>39.316046324543571</v>
       </c>
@@ -6596,19 +6625,19 @@
         <f t="shared" si="22"/>
         <v>-2.3121693745387304E+16</v>
       </c>
-      <c r="N63">
+      <c r="N63" s="3">
         <f t="shared" si="23"/>
         <v>59.039633386566209</v>
       </c>
     </row>
-    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>6.2</v>
       </c>
-      <c r="B64">
+      <c r="B64" s="5">
         <v>40.44</v>
       </c>
-      <c r="C64">
+      <c r="C64" s="4">
         <f t="shared" si="12"/>
         <v>40.546046324543582</v>
       </c>
@@ -6652,19 +6681,19 @@
         <f t="shared" si="22"/>
         <v>-5952426797790854</v>
       </c>
-      <c r="N64">
+      <c r="N64" s="3">
         <f t="shared" si="23"/>
         <v>63.08378694790278</v>
       </c>
     </row>
-    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A65">
         <v>6.3</v>
       </c>
-      <c r="B65">
+      <c r="B65" s="5">
         <v>41.69</v>
       </c>
-      <c r="C65">
+      <c r="C65" s="4">
         <f t="shared" si="12"/>
         <v>41.796046324543575</v>
       </c>
@@ -6708,19 +6737,19 @@
         <f t="shared" si="22"/>
         <v>-5165333830578839</v>
       </c>
-      <c r="N65">
+      <c r="N65" s="3">
         <f t="shared" si="23"/>
         <v>69.131628339578782</v>
       </c>
     </row>
-    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A66">
         <v>6.4</v>
       </c>
-      <c r="B66">
+      <c r="B66" s="5">
         <v>42.96</v>
       </c>
-      <c r="C66">
+      <c r="C66" s="4">
         <f t="shared" ref="C66:C102" si="24">2.10604632454358+A66^2</f>
         <v>43.066046324543585</v>
       </c>
@@ -6764,19 +6793,19 @@
         <f t="shared" ref="M66:M102" si="34">7.59467364218368+2*A66-5025427450137200/COS(0.639103478209163*A66^2)</f>
         <v>-1.0011685001699562E+16</v>
       </c>
-      <c r="N66">
+      <c r="N66" s="3">
         <f t="shared" ref="N66:N102" si="35">-1.26602480371485*(-0.211948871345009+A66)+A66^2+1*(-A66^2-0.200085359078219*(-2.10604632454358-2.54947225585585*(-7.74420659363753+A66+A66^2+(-0.693332055265977*(-2.10604632454358+(-0.211948871345009+1.22872333135044*A66)*(-0.942013923241527*A66+2.05891889657357*A66^2)*COS(1.38666411053195-0.789873940120081*A66)*(-0.693332055265977+SIN(A66))))/(2.10604632454358+A66)))-0.693332055265977*(A66+2.10604632454358*SIN(A66))+1.82600067903852*(-2.10604632454358+0.0551847756853657*A66^2*COS(2.10604632454358-0.210365559188176*A66)*SIN(0.693332055265977+SIN(6.18048654937097*COS(A66^2)))))</f>
         <v>76.156893749890202</v>
       </c>
     </row>
-    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A67">
         <v>6.5</v>
       </c>
-      <c r="B67">
+      <c r="B67" s="5">
         <v>44.25</v>
       </c>
-      <c r="C67">
+      <c r="C67" s="4">
         <f t="shared" si="24"/>
         <v>44.356046324543577</v>
       </c>
@@ -6820,19 +6849,19 @@
         <f t="shared" si="34"/>
         <v>1.7083555602608044E+16</v>
       </c>
-      <c r="N67">
+      <c r="N67" s="3">
         <f t="shared" si="35"/>
         <v>78.68775580198232</v>
       </c>
     </row>
-    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A68">
         <v>6.6</v>
       </c>
-      <c r="B68">
+      <c r="B68" s="5">
         <v>45.56</v>
       </c>
-      <c r="C68">
+      <c r="C68" s="4">
         <f t="shared" si="24"/>
         <v>45.666046324543572</v>
       </c>
@@ -6876,19 +6905,19 @@
         <f t="shared" si="34"/>
         <v>5541472747475333</v>
       </c>
-      <c r="N68">
+      <c r="N68" s="3">
         <f t="shared" si="35"/>
         <v>84.683819585107855</v>
       </c>
     </row>
-    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A69">
         <v>6.7</v>
       </c>
-      <c r="B69">
+      <c r="B69" s="5">
         <v>46.89</v>
       </c>
-      <c r="C69">
+      <c r="C69" s="4">
         <f t="shared" si="24"/>
         <v>46.996046324543578</v>
       </c>
@@ -6932,19 +6961,19 @@
         <f t="shared" si="34"/>
         <v>5491623741973631</v>
       </c>
-      <c r="N69">
+      <c r="N69" s="3">
         <f t="shared" si="35"/>
         <v>89.847470100787092</v>
       </c>
     </row>
-    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>6.8</v>
       </c>
-      <c r="B70">
+      <c r="B70" s="5">
         <v>48.24</v>
       </c>
-      <c r="C70">
+      <c r="C70" s="4">
         <f t="shared" si="24"/>
         <v>48.346046324543572</v>
       </c>
@@ -6988,19 +7017,19 @@
         <f t="shared" si="34"/>
         <v>1.7400361723004468E+16</v>
       </c>
-      <c r="N70">
+      <c r="N70" s="3">
         <f t="shared" si="35"/>
         <v>98.242383264619335</v>
       </c>
     </row>
-    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A71">
         <v>6.9</v>
       </c>
-      <c r="B71">
+      <c r="B71" s="5">
         <v>49.61</v>
       </c>
-      <c r="C71">
+      <c r="C71" s="4">
         <f t="shared" si="24"/>
         <v>49.716046324543584</v>
       </c>
@@ -7044,19 +7073,19 @@
         <f t="shared" si="34"/>
         <v>-9134059838134424</v>
       </c>
-      <c r="N71">
+      <c r="N71" s="3">
         <f t="shared" si="35"/>
         <v>103.34034386386863</v>
       </c>
     </row>
-    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A72">
         <v>7</v>
       </c>
-      <c r="B72">
+      <c r="B72" s="5">
         <v>51</v>
       </c>
-      <c r="C72">
+      <c r="C72" s="4">
         <f t="shared" si="24"/>
         <v>51.106046324543577</v>
       </c>
@@ -7100,19 +7129,19 @@
         <f t="shared" si="34"/>
         <v>-5050586844252723</v>
       </c>
-      <c r="N72">
+      <c r="N72" s="3">
         <f t="shared" si="35"/>
         <v>108.23069081133934</v>
       </c>
     </row>
-    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>7.1</v>
       </c>
-      <c r="B73">
+      <c r="B73" s="5">
         <v>52.41</v>
       </c>
-      <c r="C73">
+      <c r="C73" s="4">
         <f t="shared" si="24"/>
         <v>52.516046324543574</v>
       </c>
@@ -7156,19 +7185,19 @@
         <f t="shared" si="34"/>
         <v>-7222641050966447</v>
       </c>
-      <c r="N73">
+      <c r="N73" s="3">
         <f t="shared" si="35"/>
         <v>110.77913207644228</v>
       </c>
     </row>
-    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>7.2</v>
       </c>
-      <c r="B74">
+      <c r="B74" s="5">
         <v>53.84</v>
       </c>
-      <c r="C74">
+      <c r="C74" s="4">
         <f t="shared" si="24"/>
         <v>53.94604632454358</v>
       </c>
@@ -7212,19 +7241,19 @@
         <f t="shared" si="34"/>
         <v>3.4923021629289768E+16</v>
       </c>
-      <c r="N74">
+      <c r="N74" s="3">
         <f t="shared" si="35"/>
         <v>115.51630523621748</v>
       </c>
     </row>
-    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A75">
         <v>7.3</v>
       </c>
-      <c r="B75">
+      <c r="B75" s="5">
         <v>55.29</v>
       </c>
-      <c r="C75">
+      <c r="C75" s="4">
         <f t="shared" si="24"/>
         <v>55.396046324543576</v>
       </c>
@@ -7268,19 +7297,19 @@
         <f t="shared" si="34"/>
         <v>5725489820361381</v>
       </c>
-      <c r="N75">
+      <c r="N75" s="3">
         <f t="shared" si="35"/>
         <v>120.01359099155059</v>
       </c>
     </row>
-    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A76">
         <v>7.4</v>
       </c>
-      <c r="B76">
+      <c r="B76" s="5">
         <v>56.76</v>
       </c>
-      <c r="C76">
+      <c r="C76" s="4">
         <f t="shared" si="24"/>
         <v>56.866046324543582</v>
       </c>
@@ -7324,19 +7353,19 @@
         <f t="shared" si="34"/>
         <v>5553926611454266</v>
       </c>
-      <c r="N76">
+      <c r="N76" s="3">
         <f t="shared" si="35"/>
         <v>118.89555113022499</v>
       </c>
     </row>
-    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A77">
         <v>7.5</v>
       </c>
-      <c r="B77">
+      <c r="B77" s="5">
         <v>58.25</v>
       </c>
-      <c r="C77">
+      <c r="C77" s="4">
         <f t="shared" si="24"/>
         <v>58.356046324543577</v>
       </c>
@@ -7380,19 +7409,19 @@
         <f t="shared" si="34"/>
         <v>2.8265358285248068E+16</v>
       </c>
-      <c r="N77">
+      <c r="N77" s="3">
         <f t="shared" si="35"/>
         <v>125.028689134453</v>
       </c>
     </row>
-    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A78">
         <v>7.6</v>
       </c>
-      <c r="B78">
+      <c r="B78" s="5">
         <v>59.76</v>
       </c>
-      <c r="C78">
+      <c r="C78" s="4">
         <f t="shared" si="24"/>
         <v>59.866046324543575</v>
       </c>
@@ -7436,19 +7465,19 @@
         <f t="shared" si="34"/>
         <v>-7100617122618040</v>
       </c>
-      <c r="N78">
+      <c r="N78" s="3">
         <f t="shared" si="35"/>
         <v>131.58521632649553</v>
       </c>
     </row>
-    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A79">
         <v>7.7</v>
       </c>
-      <c r="B79">
+      <c r="B79" s="5">
         <v>61.29</v>
       </c>
-      <c r="C79">
+      <c r="C79" s="4">
         <f t="shared" si="24"/>
         <v>61.396046324543583</v>
       </c>
@@ -7492,19 +7521,19 @@
         <f t="shared" si="34"/>
         <v>-5120832439545386</v>
       </c>
-      <c r="N79">
+      <c r="N79" s="3">
         <f t="shared" si="35"/>
         <v>134.39806430097542</v>
       </c>
     </row>
-    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A80">
         <v>7.8</v>
       </c>
-      <c r="B80">
+      <c r="B80" s="5">
         <v>62.84</v>
       </c>
-      <c r="C80">
+      <c r="C80" s="4">
         <f t="shared" si="24"/>
         <v>62.946046324543573</v>
       </c>
@@ -7548,19 +7577,19 @@
         <f t="shared" si="34"/>
         <v>-1.3320314438089602E+16</v>
       </c>
-      <c r="N80">
+      <c r="N80" s="3">
         <f t="shared" si="35"/>
         <v>132.81027676644834</v>
       </c>
     </row>
-    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A81">
         <v>7.9</v>
       </c>
-      <c r="B81">
+      <c r="B81" s="5">
         <v>64.41</v>
       </c>
-      <c r="C81">
+      <c r="C81" s="4">
         <f t="shared" si="24"/>
         <v>64.516046324543581</v>
       </c>
@@ -7604,19 +7633,19 @@
         <f t="shared" si="34"/>
         <v>8691269355605687</v>
       </c>
-      <c r="N81">
+      <c r="N81" s="3">
         <f t="shared" si="35"/>
         <v>135.49681904197791</v>
       </c>
     </row>
-    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A82">
         <v>8</v>
       </c>
-      <c r="B82">
+      <c r="B82" s="5">
         <v>66</v>
       </c>
-      <c r="C82">
+      <c r="C82" s="4">
         <f t="shared" si="24"/>
         <v>66.106046324543584</v>
       </c>
@@ -7660,19 +7689,19 @@
         <f t="shared" si="34"/>
         <v>5035076235898253</v>
       </c>
-      <c r="N82">
+      <c r="N82" s="3">
         <f t="shared" si="35"/>
         <v>143.61610892014448</v>
       </c>
     </row>
-    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A83">
         <v>8.1</v>
       </c>
-      <c r="B83">
+      <c r="B83" s="5">
         <v>67.61</v>
       </c>
-      <c r="C83">
+      <c r="C83" s="4">
         <f t="shared" si="24"/>
         <v>67.716046324543584</v>
       </c>
@@ -7716,19 +7745,19 @@
         <f t="shared" si="34"/>
         <v>1.0884389035422574E+16</v>
       </c>
-      <c r="N83">
+      <c r="N83" s="3">
         <f t="shared" si="35"/>
         <v>146.6176518670384</v>
       </c>
     </row>
-    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A84">
         <v>8.1999999999999993</v>
       </c>
-      <c r="B84">
+      <c r="B84" s="5">
         <v>69.239999999999995</v>
       </c>
-      <c r="C84">
+      <c r="C84" s="4">
         <f t="shared" si="24"/>
         <v>69.346046324543579</v>
       </c>
@@ -7772,19 +7801,19 @@
         <f t="shared" si="34"/>
         <v>-9433439560283514</v>
       </c>
-      <c r="N84">
+      <c r="N84" s="3">
         <f t="shared" si="35"/>
         <v>142.78665559398891</v>
       </c>
     </row>
-    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A85">
         <v>8.3000000000000007</v>
       </c>
-      <c r="B85">
+      <c r="B85" s="5">
         <v>70.89</v>
       </c>
-      <c r="C85">
+      <c r="C85" s="4">
         <f t="shared" si="24"/>
         <v>70.996046324543599</v>
       </c>
@@ -7828,19 +7857,19 @@
         <f t="shared" si="34"/>
         <v>-5030643388380924</v>
       </c>
-      <c r="N85">
+      <c r="N85" s="3">
         <f t="shared" si="35"/>
         <v>151.10329967701711</v>
       </c>
     </row>
-    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A86">
         <v>8.4</v>
       </c>
-      <c r="B86">
+      <c r="B86" s="5">
         <v>72.56</v>
       </c>
-      <c r="C86">
+      <c r="C86" s="4">
         <f t="shared" si="24"/>
         <v>72.666046324543586</v>
       </c>
@@ -7884,19 +7913,19 @@
         <f t="shared" si="34"/>
         <v>-1.1366862224737636E+16</v>
       </c>
-      <c r="N86">
+      <c r="N86" s="3">
         <f t="shared" si="35"/>
         <v>159.40759954033069</v>
       </c>
     </row>
-    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A87">
         <v>8.5</v>
       </c>
-      <c r="B87">
+      <c r="B87" s="5">
         <v>74.25</v>
       </c>
-      <c r="C87">
+      <c r="C87" s="4">
         <f t="shared" si="24"/>
         <v>74.356046324543584</v>
       </c>
@@ -7940,19 +7969,19 @@
         <f t="shared" si="34"/>
         <v>8623350660702390</v>
       </c>
-      <c r="N87">
+      <c r="N87" s="3">
         <f t="shared" si="35"/>
         <v>162.86332392105069</v>
       </c>
     </row>
-    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A88">
         <v>8.6</v>
       </c>
-      <c r="B88">
+      <c r="B88" s="5">
         <v>75.959999999999994</v>
       </c>
-      <c r="C88">
+      <c r="C88" s="4">
         <f t="shared" si="24"/>
         <v>76.066046324543578</v>
       </c>
@@ -7996,19 +8025,19 @@
         <f t="shared" si="34"/>
         <v>5078134996740805</v>
       </c>
-      <c r="N88">
+      <c r="N88" s="3">
         <f t="shared" si="35"/>
         <v>170.82839850155841</v>
       </c>
     </row>
-    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A89">
         <v>8.6999999999999993</v>
       </c>
-      <c r="B89">
+      <c r="B89" s="5">
         <v>77.69</v>
       </c>
-      <c r="C89">
+      <c r="C89" s="4">
         <f t="shared" si="24"/>
         <v>77.796046324543568</v>
       </c>
@@ -8052,19 +8081,19 @@
         <f t="shared" si="34"/>
         <v>1.593035468259297E+16</v>
       </c>
-      <c r="N89">
+      <c r="N89" s="3">
         <f t="shared" si="35"/>
         <v>172.87914351141524</v>
       </c>
     </row>
-    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A90">
         <v>8.8000000000000007</v>
       </c>
-      <c r="B90">
+      <c r="B90" s="5">
         <v>79.44</v>
       </c>
-      <c r="C90">
+      <c r="C90" s="4">
         <f t="shared" si="24"/>
         <v>79.546046324543596</v>
       </c>
@@ -8108,19 +8137,19 @@
         <f t="shared" si="34"/>
         <v>-7022645707156759</v>
       </c>
-      <c r="N90">
+      <c r="N90" s="3">
         <f t="shared" si="35"/>
         <v>180.65497997553916</v>
       </c>
     </row>
-    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>8.9</v>
       </c>
-      <c r="B91">
+      <c r="B91" s="5">
         <v>81.209999999999994</v>
       </c>
-      <c r="C91">
+      <c r="C91" s="4">
         <f t="shared" si="24"/>
         <v>81.316046324543592</v>
       </c>
@@ -8164,19 +8193,19 @@
         <f t="shared" si="34"/>
         <v>-5365417220276037</v>
       </c>
-      <c r="N91">
+      <c r="N91" s="3">
         <f t="shared" si="35"/>
         <v>194.09529981446963</v>
       </c>
     </row>
-    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A92">
         <v>9</v>
       </c>
-      <c r="B92">
+      <c r="B92" s="5">
         <v>83</v>
       </c>
-      <c r="C92">
+      <c r="C92" s="4">
         <f t="shared" si="24"/>
         <v>83.106046324543584</v>
       </c>
@@ -8220,19 +8249,19 @@
         <f t="shared" si="34"/>
         <v>-7.2998851052371216E+16</v>
       </c>
-      <c r="N92">
+      <c r="N92" s="3">
         <f t="shared" si="35"/>
         <v>193.27504064012189</v>
       </c>
     </row>
-    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A93">
         <v>9.1</v>
       </c>
-      <c r="B93">
+      <c r="B93" s="5">
         <v>84.81</v>
       </c>
-      <c r="C93">
+      <c r="C93" s="4">
         <f t="shared" si="24"/>
         <v>84.916046324543572</v>
       </c>
@@ -8276,19 +8305,19 @@
         <f t="shared" si="34"/>
         <v>5674316346461838</v>
       </c>
-      <c r="N93">
+      <c r="N93" s="3">
         <f t="shared" si="35"/>
         <v>213.30016939271093</v>
       </c>
     </row>
-    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A94">
         <v>9.1999999999999993</v>
       </c>
-      <c r="B94">
+      <c r="B94" s="5">
         <v>86.64</v>
       </c>
-      <c r="C94">
+      <c r="C94" s="4">
         <f t="shared" si="24"/>
         <v>86.74604632454357</v>
       </c>
@@ -8332,19 +8361,19 @@
         <f t="shared" si="34"/>
         <v>6498019390208680</v>
       </c>
-      <c r="N94">
+      <c r="N94" s="3">
         <f t="shared" si="35"/>
         <v>223.19594119973172</v>
       </c>
     </row>
-    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A95">
         <v>9.3000000000000007</v>
       </c>
-      <c r="B95">
+      <c r="B95" s="5">
         <v>88.49</v>
       </c>
-      <c r="C95">
+      <c r="C95" s="4">
         <f t="shared" si="24"/>
         <v>88.596046324543593</v>
       </c>
@@ -8388,19 +8417,19 @@
         <f t="shared" si="34"/>
         <v>-1.7105565465990104E+16</v>
       </c>
-      <c r="N95">
+      <c r="N95" s="3">
         <f t="shared" si="35"/>
         <v>236.33750243219521</v>
       </c>
     </row>
-    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A96">
         <v>9.4</v>
       </c>
-      <c r="B96">
+      <c r="B96" s="5">
         <v>90.36</v>
       </c>
-      <c r="C96">
+      <c r="C96" s="4">
         <f t="shared" si="24"/>
         <v>90.466046324543598</v>
       </c>
@@ -8444,19 +8473,19 @@
         <f t="shared" si="34"/>
         <v>-5040551204814279</v>
       </c>
-      <c r="N96">
+      <c r="N96" s="3">
         <f t="shared" si="35"/>
         <v>241.49561588792034</v>
       </c>
     </row>
-    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A97">
         <v>9.5</v>
       </c>
-      <c r="B97">
+      <c r="B97" s="5">
         <v>92.25</v>
       </c>
-      <c r="C97">
+      <c r="C97" s="4">
         <f t="shared" si="24"/>
         <v>92.356046324543584</v>
       </c>
@@ -8500,19 +8529,19 @@
         <f t="shared" si="34"/>
         <v>-1.1789060297864764E+16</v>
       </c>
-      <c r="N97">
+      <c r="N97" s="3">
         <f t="shared" si="35"/>
         <v>261.66130523659638</v>
       </c>
     </row>
-    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A98">
         <v>9.6</v>
       </c>
-      <c r="B98">
+      <c r="B98" s="5">
         <v>94.16</v>
       </c>
-      <c r="C98">
+      <c r="C98" s="4">
         <f t="shared" si="24"/>
         <v>94.266046324543581</v>
       </c>
@@ -8556,19 +8585,19 @@
         <f t="shared" si="34"/>
         <v>7143449342452797</v>
       </c>
-      <c r="N98">
+      <c r="N98" s="3">
         <f t="shared" si="35"/>
         <v>270.57215962515386</v>
       </c>
     </row>
-    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A99">
         <v>9.6999999999999993</v>
       </c>
-      <c r="B99">
+      <c r="B99" s="5">
         <v>96.09</v>
       </c>
-      <c r="C99">
+      <c r="C99" s="4">
         <f t="shared" si="24"/>
         <v>96.196046324543573</v>
       </c>
@@ -8612,19 +8641,19 @@
         <f t="shared" si="34"/>
         <v>5562326312914839</v>
       </c>
-      <c r="N99">
+      <c r="N99" s="3">
         <f t="shared" si="35"/>
         <v>282.60332941944978</v>
       </c>
     </row>
-    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A100">
         <v>9.8000000000000007</v>
       </c>
-      <c r="B100">
+      <c r="B100" s="5">
         <v>98.04</v>
       </c>
-      <c r="C100">
+      <c r="C100" s="4">
         <f t="shared" si="24"/>
         <v>98.146046324543605</v>
       </c>
@@ -8668,19 +8697,19 @@
         <f t="shared" si="34"/>
         <v>-4.2529053216491072E+16</v>
       </c>
-      <c r="N100">
+      <c r="N100" s="3">
         <f t="shared" si="35"/>
         <v>287.67885323539468</v>
       </c>
     </row>
-    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A101">
         <v>9.9</v>
       </c>
-      <c r="B101">
+      <c r="B101" s="5">
         <v>100.01</v>
       </c>
-      <c r="C101">
+      <c r="C101" s="4">
         <f t="shared" si="24"/>
         <v>100.11604632454359</v>
       </c>
@@ -8724,19 +8753,19 @@
         <f t="shared" si="34"/>
         <v>-5120820201397837</v>
       </c>
-      <c r="N101">
+      <c r="N101" s="3">
         <f t="shared" si="35"/>
         <v>312.25645443931455</v>
       </c>
     </row>
-    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A102">
         <v>10</v>
       </c>
-      <c r="B102">
+      <c r="B102" s="5">
         <v>102</v>
       </c>
-      <c r="C102">
+      <c r="C102" s="4">
         <f t="shared" si="24"/>
         <v>102.10604632454358</v>
       </c>
@@ -8780,7 +8809,7 @@
         <f t="shared" si="34"/>
         <v>-1.0632328493435854E+16</v>
       </c>
-      <c r="N102">
+      <c r="N102" s="3">
         <f t="shared" si="35"/>
         <v>312.5654736315667</v>
       </c>
